--- a/team_folder/newFolder/burn_report.xlsx
+++ b/team_folder/newFolder/burn_report.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Burn Report" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -40,24 +40,26 @@
     <t xml:space="preserve">Total Task Cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Feb-6-2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial Consulting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Planning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -117,8 +119,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,22 +145,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -175,11 +178,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>43137</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.5</v>
@@ -193,6 +196,102 @@
       <c r="F2" s="0" t="n">
         <f aca="false">C2*D2*E2</f>
         <v>250</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>43139</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">C3*D3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>43144</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">C4*D4*E4</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="n">
+        <f aca="false">C5*D5*E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="0" t="n">
+        <f aca="false">C6*D6*E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0" t="n">
+        <f aca="false">C7*D7*E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="n">
+        <f aca="false">C8*D8*E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="n">
+        <f aca="false">C9*D9*E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="n">
+        <f aca="false">C10*D10*E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="n">
+        <f aca="false">C11*D11*E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="0" t="n">
+        <f aca="false">C12*D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="0" t="n">
+        <f aca="false">C13*D13*E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="n">
+        <f aca="false">C14*D14*E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="n">
+        <f aca="false">C15*D15*E15</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
